--- a/Documents/Projektplan_M133_Vorlage.xlsx
+++ b/Documents/Projektplan_M133_Vorlage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6934A3F-E6CC-4A7F-B417-5A3B53BAB5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695427F-53DC-4698-90A2-01078D6DCCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1650" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplaner" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>AKTIVITÄT</t>
   </si>
@@ -71,93 +71,6 @@
   </si>
   <si>
     <t>Tatsächlicher Start</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>abgeschlossen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tatsächlich (hinter dem Plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>abgeschlossen (hinter dem Plan)</t>
-    </r>
-  </si>
-  <si>
-    <t>Arbeitsstunden</t>
-  </si>
-  <si>
-    <t>Tracker</t>
   </si>
   <si>
     <t>Datenbank erstellen</t>
@@ -198,6 +111,110 @@
   <si>
     <t>Klassendiagramm</t>
   </si>
+  <si>
+    <t>Meilensteine</t>
+  </si>
+  <si>
+    <t>Backend Fertig</t>
+  </si>
+  <si>
+    <t>Datenbank Fertig</t>
+  </si>
+  <si>
+    <t>Frontend Fertig</t>
+  </si>
+  <si>
+    <t>Dokumentation Fertig</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abgeschlossen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tatsächlich (hinter dem Plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abgeschlossen (hinter dem Plan)</t>
+    </r>
+  </si>
+  <si>
+    <t>Stronk - M133</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -236,32 +253,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -317,11 +308,57 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="42"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Corbel"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -457,14 +494,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -473,40 +510,40 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
@@ -523,118 +560,118 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="1" xfId="13" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,10 +1083,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:AQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="30" customHeight="1"/>
@@ -1063,29 +1100,65 @@
     <col min="28" max="67" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
-      <c r="B1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="11"/>
+    <row r="1" spans="2:43" ht="60" customHeight="1" thickBot="1">
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="4" t="s">
+    <row r="2" spans="2:43" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="12">
         <v>44906</v>
       </c>
+      <c r="I2" s="8"/>
       <c r="J2" s="13"/>
       <c r="K2" s="37" t="s">
         <v>8</v>
@@ -1103,14 +1176,14 @@
       <c r="T2" s="39"/>
       <c r="U2" s="15"/>
       <c r="V2" s="30" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
       <c r="Y2" s="41"/>
       <c r="Z2" s="16"/>
       <c r="AA2" s="30" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31"/>
@@ -1120,7 +1193,7 @@
       <c r="AG2" s="41"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
@@ -1129,8 +1202,9 @@
       <c r="AN2" s="31"/>
       <c r="AO2" s="31"/>
       <c r="AP2" s="31"/>
+      <c r="AQ2" s="9"/>
     </row>
-    <row r="3" spans="2:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+    <row r="3" spans="2:43" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
       <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
@@ -1152,257 +1226,273 @@
       <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
+    <row r="4" spans="2:43" ht="15.75" customHeight="1">
       <c r="B4" s="33"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <v>44875</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="22">
         <v>44876</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="22">
         <v>44877</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="22">
         <v>44878</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="22">
         <v>44879</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="22">
         <v>44880</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="22">
         <v>44881</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="22">
         <v>44882</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="22">
         <v>44883</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="22">
         <v>44884</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="22">
         <v>44885</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="22">
         <v>44886</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="22">
         <v>44887</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="22">
         <v>44888</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="22">
         <v>44889</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="22">
         <v>44890</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="22">
         <v>44891</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="22">
         <v>44892</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="22">
         <v>44893</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="22">
         <v>44894</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="22">
         <v>44895</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="22">
         <v>44896</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="22">
         <v>44897</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="22">
         <v>44898</v>
       </c>
-      <c r="AF4" s="20">
+      <c r="AF4" s="22">
         <v>44899</v>
       </c>
-      <c r="AG4" s="20">
+      <c r="AG4" s="22">
         <v>44900</v>
       </c>
-      <c r="AH4" s="20">
+      <c r="AH4" s="22">
         <v>44901</v>
       </c>
-      <c r="AI4" s="20">
+      <c r="AI4" s="22">
         <v>44902</v>
       </c>
-      <c r="AJ4" s="20">
+      <c r="AJ4" s="22">
         <v>44903</v>
       </c>
-      <c r="AK4" s="20">
+      <c r="AK4" s="22">
         <v>44904</v>
       </c>
-      <c r="AL4" s="20">
+      <c r="AL4" s="22">
         <v>44905</v>
       </c>
-      <c r="AM4" s="20">
+      <c r="AM4" s="22">
         <v>44906</v>
       </c>
-      <c r="AN4" s="20">
+      <c r="AN4" s="22">
         <v>44907</v>
       </c>
-      <c r="AO4" s="20">
+      <c r="AO4" s="22">
         <v>44908</v>
       </c>
-      <c r="AP4" s="20">
+      <c r="AP4" s="22">
         <v>44909</v>
       </c>
-      <c r="AQ4" s="20">
+      <c r="AQ4" s="22">
         <v>44910</v>
       </c>
-      <c r="AR4" s="20">
-        <v>44911</v>
-      </c>
-      <c r="AS4" s="20">
-        <v>44912</v>
-      </c>
-      <c r="AT4" s="20">
-        <v>44913</v>
-      </c>
-      <c r="AU4" s="20">
-        <v>44914</v>
-      </c>
-      <c r="AV4" s="20">
-        <v>44915</v>
-      </c>
-      <c r="AW4" s="20">
-        <v>44916</v>
-      </c>
-      <c r="AX4" s="20">
-        <v>44917</v>
-      </c>
-      <c r="AY4" s="20">
-        <v>44918</v>
-      </c>
-      <c r="AZ4" s="20">
-        <v>44919</v>
-      </c>
-      <c r="BA4" s="20">
-        <v>44920</v>
-      </c>
-      <c r="BB4" s="20">
-        <v>44921</v>
-      </c>
-      <c r="BC4" s="20">
-        <v>44922</v>
-      </c>
-      <c r="BD4" s="20">
-        <v>44923</v>
-      </c>
-      <c r="BE4" s="20">
-        <v>44924</v>
-      </c>
-      <c r="BF4" s="20">
-        <v>44925</v>
-      </c>
-      <c r="BG4" s="20">
-        <v>44926</v>
-      </c>
-      <c r="BH4" s="20">
-        <v>44927</v>
-      </c>
-      <c r="BI4" s="20">
-        <v>44928</v>
-      </c>
-      <c r="BJ4" s="20">
-        <v>44929</v>
-      </c>
-      <c r="BK4" s="20">
-        <v>44930</v>
-      </c>
-      <c r="BL4" s="20">
-        <v>44931</v>
-      </c>
-      <c r="BM4" s="20">
-        <v>44932</v>
-      </c>
-      <c r="BN4" s="20">
-        <v>44933</v>
-      </c>
-      <c r="BO4" s="20">
-        <v>44934</v>
-      </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
-      <c r="B5" s="25" t="s">
-        <v>16</v>
+    <row r="5" spans="2:43" ht="30" customHeight="1">
+      <c r="B5" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="24">
         <v>44875</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <v>44875</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="26">
         <v>1</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
-      <c r="B6" s="25" t="s">
-        <v>18</v>
+    <row r="6" spans="2:43" ht="30" customHeight="1">
+      <c r="B6" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="24">
         <v>44876</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="25">
         <v>44876</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="26">
         <v>1</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
-      <c r="B7" s="25" t="s">
-        <v>15</v>
+    <row r="7" spans="2:43" ht="30" customHeight="1">
+      <c r="B7" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="24">
         <v>44877</v>
@@ -1410,358 +1500,1253 @@
       <c r="D7" s="27">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="25">
         <v>44877</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="26">
         <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
       </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
-      <c r="B8" s="25" t="s">
-        <v>17</v>
+    <row r="8" spans="2:43" ht="30" customHeight="1">
+      <c r="B8" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="24">
         <v>44877</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="25">
         <v>44877</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="26">
         <v>1</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
-      <c r="B9" s="25" t="s">
-        <v>20</v>
+    <row r="9" spans="2:43" ht="30" customHeight="1">
+      <c r="B9" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="24">
         <v>44878</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>44878</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="26">
         <v>2</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
-      <c r="B10" s="25" t="s">
-        <v>19</v>
+    <row r="10" spans="2:43" ht="30" customHeight="1">
+      <c r="B10" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="24">
         <v>44880</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>3</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="25">
         <v>44880</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
+      <c r="F10" s="26">
+        <v>5</v>
       </c>
       <c r="G10" s="7">
-        <v>0.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
-      <c r="B11" s="25" t="s">
-        <v>22</v>
+    <row r="11" spans="2:43" ht="30" customHeight="1">
+      <c r="B11" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="24">
         <v>44882</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="25">
         <v>44882</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
+      <c r="F11" s="26">
+        <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>27</v>
+    <row r="12" spans="2:43" ht="30" customHeight="1">
+      <c r="B12" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="24">
         <v>44883</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="6">
-        <v>0</v>
+      <c r="E12" s="25">
+        <v>44884</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
-      <c r="B13" s="25" t="s">
-        <v>21</v>
+    <row r="13" spans="2:43" ht="30" customHeight="1">
+      <c r="B13" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="24">
         <v>44885</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="6">
-        <v>0</v>
+      <c r="E13" s="25">
+        <v>44890</v>
+      </c>
+      <c r="F13" s="26">
+        <v>4</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
-      <c r="B14" s="25" t="s">
-        <v>23</v>
+    <row r="14" spans="2:43" ht="30" customHeight="1">
+      <c r="B14" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="24">
         <v>44888</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="6">
-        <v>0</v>
+      <c r="E14" s="25">
+        <v>44893</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
-      <c r="B15" s="25" t="s">
-        <v>24</v>
+    <row r="15" spans="2:43" ht="30" customHeight="1">
+      <c r="B15" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="24">
         <v>44891</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <v>5</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="6">
-        <v>0</v>
+      <c r="E15" s="25">
+        <v>44894</v>
+      </c>
+      <c r="F15" s="26">
+        <v>5</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
-      <c r="B16" s="25" t="s">
-        <v>25</v>
+    <row r="16" spans="2:43" ht="30" customHeight="1">
+      <c r="B16" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="24">
         <v>44896</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <v>4</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="6">
-        <v>0</v>
+      <c r="E16" s="25">
+        <v>44881</v>
+      </c>
+      <c r="F16" s="26">
+        <v>12</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
-      <c r="B17" s="25" t="s">
-        <v>26</v>
+    <row r="17" spans="2:43" ht="30" customHeight="1">
+      <c r="B17" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="24">
         <v>44900</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <v>6</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>0</v>
+      <c r="E17" s="25">
+        <v>44905</v>
+      </c>
+      <c r="F17" s="26">
+        <v>2</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
-      <c r="B18" s="5"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+    <row r="18" spans="2:43" ht="30" customHeight="1">
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
         <v>0</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
       </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
-      <c r="B19" s="5"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
+    <row r="19" spans="2:43" ht="30" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26">
         <v>0</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
-      <c r="B20" s="5"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <v>0</v>
+    <row r="20" spans="2:43" ht="30" customHeight="1">
+      <c r="B20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25">
+        <v>44877</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
-      <c r="C21" s="21"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
-        <v>0</v>
+    <row r="21" spans="2:43" ht="30" customHeight="1">
+      <c r="B21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25">
+        <v>44898</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
-      <c r="B22" s="5"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>0</v>
+    <row r="22" spans="2:43" ht="30" customHeight="1">
+      <c r="B22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25">
+        <v>44892</v>
+      </c>
+      <c r="F22" s="26">
+        <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>0</v>
+    <row r="23" spans="2:43" ht="30" customHeight="1">
+      <c r="B23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25">
+        <v>44906</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+    <row r="24" spans="2:43" ht="30" customHeight="1">
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26">
         <v>0</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
       </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6">
+    <row r="25" spans="2:43" ht="30" customHeight="1">
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26">
         <v>0</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
       </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
+    <row r="26" spans="2:43" ht="30" customHeight="1">
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26">
         <v>0</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
       </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+    <row r="27" spans="2:43" ht="30" customHeight="1">
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26">
         <v>0</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
       </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+    <row r="28" spans="2:43" ht="30" customHeight="1">
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26">
         <v>0</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
       </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
+    <row r="29" spans="2:43" ht="30" customHeight="1">
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26">
         <v>0</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
       </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
+    <row r="30" spans="2:43" ht="30" customHeight="1">
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26">
         <v>0</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
       </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1777,8 +2762,8 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
-  <conditionalFormatting sqref="H5:BO30">
+  <phoneticPr fontId="10"/>
+  <conditionalFormatting sqref="H5:AQ30">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProzentAbgeschlossen</formula>
     </cfRule>
@@ -1804,12 +2789,12 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B31:AQ31">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
+  <conditionalFormatting sqref="H4:AQ4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=Zeitraum_ausgewählt</formula>
     </cfRule>
@@ -1849,15 +2834,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100575252227E2CD94BAA57737B8CCF6C00" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a1ba87e38e7199455f4b9c9076656d88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="83a5a715-0f71-48ff-8068-8137b011a57a" xmlns:ns4="0eaf4ea7-87f0-4382-9068-5d0b03b0bda3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eac3440b965a8ab4999be3de7024e7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="83a5a715-0f71-48ff-8068-8137b011a57a"/>
@@ -2080,6 +3056,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2087,14 +3072,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8E7206-630A-4340-BDDB-2F75D23C1584}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11ECE6F4-0CBF-4633-9879-C2297B1C6417}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2109,6 +3086,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8E7206-630A-4340-BDDB-2F75D23C1584}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
